--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B45621A4-F83F-4FEC-94A9-0DF5DD86E256}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogami\quelcode-db\db\db-challenge2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE362E-647B-4838-BD6A-0AE6D970F73E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35580" yWindow="1260" windowWidth="25560" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ユーザー" sheetId="4" r:id="rId1"/>
-    <sheet name="チャットルーム" sheetId="6" r:id="rId2"/>
-    <sheet name="チャット参加ユーザー" sheetId="5" r:id="rId3"/>
-    <sheet name="投稿" sheetId="7" r:id="rId4"/>
-    <sheet name="タスク" sheetId="8" r:id="rId5"/>
+    <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
+    <sheet name="ユーザー" sheetId="4" r:id="rId2"/>
+    <sheet name="チャットルーム" sheetId="6" r:id="rId3"/>
+    <sheet name="チャット参加ユーザー" sheetId="5" r:id="rId4"/>
+    <sheet name="投稿" sheetId="7" r:id="rId5"/>
+    <sheet name="タスク" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
   <si>
     <t>テーブル名</t>
   </si>
@@ -289,10 +284,6 @@
     <t>chatrooms</t>
   </si>
   <si>
-    <t>チャットルームの情報を保持する
-テーブル</t>
-  </si>
-  <si>
     <t>チャットID</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>ファイル送信可否</t>
   </si>
   <si>
-    <t>file_enabled</t>
-  </si>
-  <si>
     <t>1:許可</t>
   </si>
   <si>
@@ -341,13 +329,6 @@
     <t>updated_user_id</t>
   </si>
   <si>
-    <t>user_in_chatroom</t>
-  </si>
-  <si>
-    <t>チャットルームとそこに参加している
-ユーザーを結び付けるテーブル</t>
-  </si>
-  <si>
     <t>chatroom_id</t>
   </si>
   <si>
@@ -411,9 +392,6 @@
     <t>担当者ID</t>
   </si>
   <si>
-    <t>user_id_in_charge</t>
-  </si>
-  <si>
     <t>期限</t>
   </si>
   <si>
@@ -423,17 +401,144 @@
     <t>完了フラグ</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>1:完了</t>
+  </si>
+  <si>
+    <t>改定履歴</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>編集者</t>
+  </si>
+  <si>
+    <t>テンプレート作成</t>
+  </si>
+  <si>
+    <t>alcoder</t>
+  </si>
+  <si>
+    <t>各テーブル定義の作成</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>大神</t>
+    <rPh sb="0" eb="2">
+      <t>オオガミ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_complete</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tasks</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>完了フラグのカラム名を「completed」から「is_complete」に変更</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>created_user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>updated_user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャットルームの情報を保持するテーブル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>is_file_transfer_enabled</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>chatrooms</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ファイル送信可否のカラム名を「file_enabled」から[is_file_transfer_enabled」に変更</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>担当者IDのカラム名を「user_id_in_charge」から「assigned_user_id」に変更</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>assigned_user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>users_in_chatrooms</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>チャットルームと参加しているユーザーのリレーションを張るテーブル</t>
+    <rPh sb="26" eb="27">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テーブル名を「user_in_chatroom」から変更</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -443,10 +548,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -478,8 +585,47 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,8 +638,20 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -516,11 +674,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -567,8 +771,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,6 +1034,445 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0647F7-979B-468C-BAAE-731E9DDF7A3E}">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.453125" style="18"/>
+    <col min="2" max="2" width="23.453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="97" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="14.453125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>43955</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>44211</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="36">
+        <v>44212</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="22"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="22"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="D5:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82534C5-FDF2-40EA-9ED4-50328900B1BC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -792,26 +1481,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="5"/>
+    <col min="1" max="1" width="12.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -821,7 +1510,7 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -831,7 +1520,7 @@
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -839,7 +1528,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -871,7 +1560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
@@ -900,7 +1589,7 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -925,7 +1614,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -950,7 +1639,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -975,7 +1664,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -998,7 +1687,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1021,7 +1710,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1044,7 +1733,7 @@
       <c r="J11" s="10"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1073,7 +1762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1096,7 +1785,7 @@
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1116,369 +1805,6 @@
         <v>17</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03292422-12EA-4873-BF15-14E6AE7B1A99}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="B5" s="8">
-        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9">
-        <v>11</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
-      <c r="B6" s="8">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="9">
-        <v>100</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
-      <c r="B7" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="B8" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="B9" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="B12" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="9">
-        <v>11</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="B13" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="B14" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="13">
-        <v>11</v>
-      </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>58</v>
-      </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
@@ -1495,54 +1821,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C557067-CD56-496C-A100-1BA4134F70E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03292422-12EA-4873-BF15-14E6AE7B1A99}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="5"/>
+    <col min="1" max="1" width="12.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>62</v>
+      <c r="B2" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1876,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1582,16 +1908,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B14" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1604,60 +1930,246 @@
         <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F6" s="9">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="10"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1000</v>
+      </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9">
+        <v>11</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="13">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1672,54 +2184,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2267034F-9B1A-4225-BE7A-0449224EE10A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C557067-CD56-496C-A100-1BA4134F70E3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="5"/>
+    <col min="1" max="1" width="12.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>68</v>
+      <c r="B1" s="35" t="s">
+        <v>102</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>69</v>
+      <c r="B2" s="28" t="s">
+        <v>103</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1727,7 +2239,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1759,16 +2271,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
+        <f t="shared" ref="B5:B7" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>16</v>
@@ -1781,22 +2293,21 @@
         <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="J5" s="1"/>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -1808,29 +2319,27 @@
       <c r="H6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="1"/>
+      <c r="I6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1000</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F7" s="9"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11" t="s">
         <v>17</v>
@@ -1838,158 +2347,6 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
-      <c r="B8" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9">
-        <v>100</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
-      <c r="B9" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="B10" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="B11" s="8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="9">
-        <v>11</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="B12" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="B13" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="9">
-        <v>11</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2004,6 +2361,338 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2267034F-9B1A-4225-BE7A-0449224EE10A}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.453125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8">
+        <f t="shared" ref="B5:B13" si="0">ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="9">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9">
+        <v>11</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9">
+        <v>100</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="9">
+        <v>11</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="9">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D57163B-1834-410F-9164-0C408BBE2C0D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2015,43 +2704,43 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="14.42578125" style="5"/>
+    <col min="1" max="1" width="12.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +2748,7 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2091,13 +2780,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <f t="shared" ref="B5:B15" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -2120,16 +2809,16 @@
       </c>
       <c r="K5" s="10"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -2142,21 +2831,21 @@
         <v>17</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
@@ -2172,16 +2861,16 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
@@ -2197,16 +2886,16 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>40</v>
@@ -2218,16 +2907,16 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
@@ -2244,10 +2933,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2276,7 +2965,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2299,16 +2988,16 @@
       <c r="J12" s="10"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>16</v>
@@ -2321,12 +3010,12 @@
         <v>17</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2349,16 +3038,16 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -2371,7 +3060,7 @@
         <v>17</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogami\quelcode-db\db\db-challenge2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FE362E-647B-4838-BD6A-0AE6D970F73E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FE4843-5B10-4E7B-9AE4-23998F371A4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35580" yWindow="1260" windowWidth="25560" windowHeight="14100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40650" yWindow="1935" windowWidth="17415" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
   <si>
     <t>テーブル名</t>
   </si>
@@ -530,6 +530,54 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>assigned_user_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムの外部キー(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FK)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指定を追加</t>
+    </r>
+    <rPh sb="20" eb="22">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -724,7 +772,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -768,9 +816,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -789,8 +834,21 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -801,24 +859,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,429 +1097,437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0647F7-979B-468C-BAAE-731E9DDF7A3E}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.453125" style="18"/>
-    <col min="2" max="2" width="23.453125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="97" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="14.453125" style="18"/>
+    <col min="1" max="1" width="14.453125" style="17"/>
+    <col min="2" max="2" width="23.453125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="97" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="14.453125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="A3" s="20">
         <v>43955</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>44211</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="21"/>
+      <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="30">
         <v>44212</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="33" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+      <c r="A6" s="31"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="31"/>
+      <c r="B7" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="D8" s="35"/>
+    </row>
+    <row r="9" spans="1:4" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>44214</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="21"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="21"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="22"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="21"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="22"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="21"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="21"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="21"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1479,9 +1547,9 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1504,29 +1572,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1829,7 +1897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1852,29 +1920,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -2192,7 +2260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2215,29 +2283,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -2369,7 +2437,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2392,29 +2460,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -2724,29 +2792,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -2882,7 +2950,9 @@
       <c r="H8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ogami\quelcode-db\db\db-challenge2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FE4843-5B10-4E7B-9AE4-23998F371A4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15415175-3583-4B08-B6FC-0193E253F78E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40650" yWindow="1935" windowWidth="17415" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35910" yWindow="1140" windowWidth="21450" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="112">
   <si>
     <t>テーブル名</t>
   </si>
@@ -577,6 +577,59 @@
       <t>シテイ</t>
     </rPh>
     <rPh sb="31" eb="33">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>current_timestamp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>on update current_timestamp</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>datetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>型カラムのデフォルト値（必要な場合にはその他設定も）を追加</t>
+    </r>
+    <rPh sb="8" eb="9">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -772,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -835,6 +888,18 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -859,6 +924,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -867,18 +935,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1098,7 +1154,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1156,90 +1212,106 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="34">
         <v>44212</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="32" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="21" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="35"/>
-    </row>
-    <row r="9" spans="1:4" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" spans="1:4" s="31" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
         <v>44214</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="34">
+        <v>44215</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
@@ -1530,10 +1602,13 @@
       <c r="D62" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="D5:D8"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D10:D14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1560,10 +1635,10 @@
     <col min="4" max="4" width="14.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
@@ -1572,29 +1647,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -1845,7 +1920,9 @@
         <v>40</v>
       </c>
       <c r="F13" s="13"/>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H13" s="9" t="s">
         <v>17</v>
       </c>
@@ -1868,12 +1945,16 @@
         <v>40</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="K14" s="10"/>
     </row>
   </sheetData>
@@ -1908,10 +1989,10 @@
     <col min="4" max="4" width="21.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.36328125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
@@ -1920,29 +2001,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -2154,7 +2235,9 @@
         <v>40</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H11" s="12" t="s">
         <v>17</v>
       </c>
@@ -2204,12 +2287,16 @@
         <v>40</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,7 +2347,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2271,7 +2358,7 @@
     <col min="4" max="4" width="21.7265625" style="5" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.90625" style="5" bestFit="1" customWidth="1"/>
@@ -2283,29 +2370,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -2408,7 +2495,9 @@
         <v>40</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H7" s="11" t="s">
         <v>17</v>
       </c>
@@ -2448,10 +2537,10 @@
     <col min="4" max="4" width="15.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
@@ -2460,29 +2549,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -2663,7 +2752,9 @@
         <v>40</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H10" s="12" t="s">
         <v>17</v>
       </c>
@@ -2713,12 +2804,16 @@
         <v>40</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,10 +2875,10 @@
     <col min="4" max="4" width="16.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" style="5" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="14.453125" style="5"/>
   </cols>
@@ -2792,29 +2887,29 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
@@ -3050,7 +3145,9 @@
         <v>40</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H12" s="11" t="s">
         <v>17</v>
       </c>
@@ -3100,12 +3197,16 @@
         <v>40</v>
       </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
